--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>759784.3326827469</v>
+        <v>757083.1160312904</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,58 +674,58 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>251.1481678782825</v>
+      </c>
+      <c r="V2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>212.2897156032232</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2792495146818396</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>72.36698404190653</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16.66197659284158</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>54.28803921196106</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>62.62409840569208</v>
+        <v>77.75392192072599</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>316.5565966897758</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.6877278154306</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863703</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>71.94657683901559</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>95.77682125736617</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333229</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713877</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>18.38001404691914</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>87.60336766488601</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>65.63423531973068</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
         <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>198.8358734983112</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>117.5235404623155</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>77.21070725183898</v>
+        <v>245.5761046894317</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>293.4822198543828</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>307.6000736915335</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184563</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615216</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1464,10 +1464,10 @@
         <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812554</v>
+        <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530801</v>
+        <v>10.48847705530794</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075614</v>
+        <v>123.6502311075613</v>
       </c>
       <c r="T12" t="n">
         <v>189.7415240061373</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.7254352278159</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905251</v>
+        <v>79.81330679905243</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793189</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1667,13 +1667,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740358</v>
       </c>
       <c r="D16" t="n">
-        <v>68.17501931584128</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856271</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012487</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>80.089713111593</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462188</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695562</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>38.61213096654853</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456777</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.82863813027271</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699834</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605715493</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>132.6036163643573</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.006892987834192</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833858</v>
       </c>
       <c r="H40" t="n">
-        <v>1.799772605715775</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3746,16 +3746,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722633</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503967</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456782</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703264</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.3840804899463</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>307.3840804899463</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899463</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>307.3840804899463</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>300.4385797407429</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4328,22 +4328,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411526</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411526</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="W2" t="n">
-        <v>574.0438072739746</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="X2" t="n">
-        <v>573.7617370571243</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.3840804899463</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180.334565405576</v>
+        <v>197.1648447922847</v>
       </c>
       <c r="C3" t="n">
         <v>180.334565405576</v>
@@ -4410,49 +4410,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>851.3828183654591</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>623.2469724022726</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V3" t="n">
-        <v>388.0948641705299</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W3" t="n">
-        <v>388.0948641705299</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="X3" t="n">
-        <v>388.0948641705299</v>
+        <v>365.3801818123527</v>
       </c>
       <c r="Y3" t="n">
-        <v>180.334565405576</v>
+        <v>365.3801818123527</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318.1036973103666</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>318.1036973103666</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>167.9870578980309</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
         <v>21.09711040012049</v>
@@ -4489,19 +4489,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4525,13 +4525,13 @@
         <v>563.0088271968609</v>
       </c>
       <c r="W4" t="n">
-        <v>499.7521621406063</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="X4" t="n">
-        <v>499.7521621406063</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="Y4" t="n">
-        <v>499.7521621406063</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>821.8262933957174</v>
+        <v>1136.345205654768</v>
       </c>
       <c r="C5" t="n">
-        <v>821.8262933957174</v>
+        <v>816.5910675842874</v>
       </c>
       <c r="D5" t="n">
-        <v>463.5605947889668</v>
+        <v>816.5910675842874</v>
       </c>
       <c r="E5" t="n">
-        <v>463.5605947889668</v>
+        <v>430.8028149860431</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6150940397633</v>
+        <v>43.23945355631518</v>
       </c>
       <c r="G5" t="n">
-        <v>444.0706587086826</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541607</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523442</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275096</v>
+        <v>93.7664115927513</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245553</v>
+        <v>239.0325989245558</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825619</v>
+        <v>456.1499114825625</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748842</v>
+        <v>729.4041931748851</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202377</v>
+        <v>1011.693823202378</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.91665479841</v>
+        <v>1264.916654798412</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189407</v>
+        <v>1446.535482189408</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261721</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261721</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261721</v>
+        <v>1389.99667351825</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261721</v>
+        <v>1389.99667351825</v>
       </c>
       <c r="U5" t="n">
-        <v>1281.099443398239</v>
+        <v>1136.345205654768</v>
       </c>
       <c r="V5" t="n">
-        <v>1281.099443398239</v>
+        <v>1136.345205654768</v>
       </c>
       <c r="W5" t="n">
-        <v>1208.426133459839</v>
+        <v>1136.345205654768</v>
       </c>
       <c r="X5" t="n">
-        <v>1208.426133459839</v>
+        <v>1136.345205654768</v>
       </c>
       <c r="Y5" t="n">
-        <v>1208.426133459839</v>
+        <v>1136.345205654768</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>449.9996641091051</v>
+        <v>264.6115818588773</v>
       </c>
       <c r="C6" t="n">
-        <v>275.546634827978</v>
+        <v>264.6115818588773</v>
       </c>
       <c r="D6" t="n">
-        <v>275.546634827978</v>
+        <v>264.6115818588773</v>
       </c>
       <c r="E6" t="n">
-        <v>275.546634827978</v>
+        <v>167.8673179625478</v>
       </c>
       <c r="F6" t="n">
-        <v>129.012076854863</v>
+        <v>167.8673179625478</v>
       </c>
       <c r="G6" t="n">
-        <v>129.012076854863</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523442</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523442</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="J6" t="n">
-        <v>57.96565423024283</v>
+        <v>49.44206107563413</v>
       </c>
       <c r="K6" t="n">
-        <v>168.162161171553</v>
+        <v>159.6385680169444</v>
       </c>
       <c r="L6" t="n">
-        <v>362.6575050029046</v>
+        <v>354.1339118482963</v>
       </c>
       <c r="M6" t="n">
-        <v>608.9812656736501</v>
+        <v>600.457672519042</v>
       </c>
       <c r="N6" t="n">
-        <v>876.2331282458721</v>
+        <v>889.0545187259708</v>
       </c>
       <c r="O6" t="n">
-        <v>1098.49657541139</v>
+        <v>1111.317965891489</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948666</v>
+        <v>1270.370911090177</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261721</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261721</v>
+        <v>1530.346686757971</v>
       </c>
       <c r="S6" t="n">
-        <v>1534.750911261721</v>
+        <v>1385.878273152066</v>
       </c>
       <c r="T6" t="n">
-        <v>1516.185240507257</v>
+        <v>1189.97363070375</v>
       </c>
       <c r="U6" t="n">
-        <v>1288.064156827861</v>
+        <v>961.8525470243544</v>
       </c>
       <c r="V6" t="n">
-        <v>1288.064156827861</v>
+        <v>726.7004387926117</v>
       </c>
       <c r="W6" t="n">
-        <v>1033.82680009966</v>
+        <v>472.4630820644101</v>
       </c>
       <c r="X6" t="n">
-        <v>825.9752998941269</v>
+        <v>264.6115818588773</v>
       </c>
       <c r="Y6" t="n">
-        <v>618.2150011291731</v>
+        <v>264.6115818588773</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>849.0434256993323</v>
+        <v>236.9104562721272</v>
       </c>
       <c r="C7" t="n">
-        <v>680.1072427714254</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="D7" t="n">
-        <v>529.9906033590896</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="E7" t="n">
-        <v>463.6933959654223</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="F7" t="n">
-        <v>316.8034484675119</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="G7" t="n">
         <v>148.4222061055756</v>
@@ -4720,55 +4720,55 @@
         <v>148.4222061055756</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523442</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523442</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223265</v>
+        <v>157.4322756223266</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830385</v>
+        <v>375.1387655830388</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388147</v>
+        <v>615.0688576388151</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974818</v>
+        <v>854.7285647974822</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
         <v>1212.267005934021</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495183</v>
+        <v>1113.866490402741</v>
       </c>
       <c r="S7" t="n">
-        <v>1030.691890529572</v>
+        <v>910.35784443713</v>
       </c>
       <c r="T7" t="n">
-        <v>1030.691890529572</v>
+        <v>685.6925863136746</v>
       </c>
       <c r="U7" t="n">
-        <v>1030.691890529572</v>
+        <v>685.6925863136746</v>
       </c>
       <c r="V7" t="n">
-        <v>1030.691890529572</v>
+        <v>685.6925863136746</v>
       </c>
       <c r="W7" t="n">
-        <v>1030.691890529572</v>
+        <v>685.6925863136746</v>
       </c>
       <c r="X7" t="n">
-        <v>1030.691890529572</v>
+        <v>457.7030354156573</v>
       </c>
       <c r="Y7" t="n">
-        <v>1030.691890529572</v>
+        <v>236.9104562721272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2084.871465656511</v>
+        <v>970.5047989601121</v>
       </c>
       <c r="C8" t="n">
-        <v>1715.9089487161</v>
+        <v>601.5422820197005</v>
       </c>
       <c r="D8" t="n">
-        <v>1357.643250109349</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="E8" t="n">
-        <v>971.8549975111048</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>236.3310826637465</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656511</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>2084.871465656511</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y8" t="n">
-        <v>2084.871465656511</v>
+        <v>1357.104639024234</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,22 +4884,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380231</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>621.7403896492181</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>621.7403896492181</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
         <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329314</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>849.7299405472354</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>849.7299405472354</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>621.7403896492181</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>621.7403896492181</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1585.374274584225</v>
+        <v>1485.490329133571</v>
       </c>
       <c r="C11" t="n">
-        <v>1585.374274584225</v>
+        <v>1116.527812193159</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.927587862627</v>
+        <v>1116.527812193159</v>
       </c>
       <c r="E11" t="n">
-        <v>903.1393352643825</v>
+        <v>805.8206670501954</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747749</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592061</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592061</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.161540565696</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087829</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.60089048404</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535292</v>
+        <v>3033.988513535295</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.12796747999</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464056</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796031</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796031</v>
+        <v>3776.999350345376</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377395</v>
+        <v>3573.02074392674</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498924</v>
+        <v>3319.526802048269</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155353</v>
+        <v>2988.463914704698</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.579204885239</v>
+        <v>2635.695259434584</v>
       </c>
       <c r="X11" t="n">
-        <v>2362.113446624159</v>
+        <v>2262.229501173504</v>
       </c>
       <c r="Y11" t="n">
-        <v>1971.974114648347</v>
+        <v>1872.090169197692</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="J12" t="n">
-        <v>163.8264199621969</v>
+        <v>193.8410919870411</v>
       </c>
       <c r="K12" t="n">
-        <v>440.7623243798207</v>
+        <v>470.7769964046652</v>
       </c>
       <c r="L12" t="n">
-        <v>859.4593650377716</v>
+        <v>889.4740370626166</v>
       </c>
       <c r="M12" t="n">
-        <v>1367.415930994299</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1903.225240695508</v>
+        <v>1532.266717861146</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.16628502803</v>
+        <v>2000.207762193669</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>365.7608055583725</v>
+        <v>394.3869424262207</v>
       </c>
       <c r="C13" t="n">
-        <v>365.7608055583725</v>
+        <v>225.4507594983138</v>
       </c>
       <c r="D13" t="n">
-        <v>215.6441661460367</v>
+        <v>225.4507594983138</v>
       </c>
       <c r="E13" t="n">
-        <v>215.6441661460367</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="F13" t="n">
-        <v>215.6441661460368</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758645</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648138</v>
+        <v>364.1690246648141</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344799</v>
+        <v>710.5788654344803</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376938</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818662</v>
+        <v>1786.049800818663</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.94034901072</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742805</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.74346692558</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458876</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.736286893317</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.644593842768</v>
+        <v>1358.644593842769</v>
       </c>
       <c r="V13" t="n">
-        <v>1103.960105636881</v>
+        <v>1103.960105636882</v>
       </c>
       <c r="W13" t="n">
-        <v>814.5429355999199</v>
+        <v>814.5429355999215</v>
       </c>
       <c r="X13" t="n">
-        <v>586.5533847019026</v>
+        <v>796.8279863999906</v>
       </c>
       <c r="Y13" t="n">
-        <v>365.7608055583725</v>
+        <v>576.0354072564604</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349513</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.574735228845</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2526.197884723913</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851755</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851755</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851755</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000554</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000554</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="17">
@@ -5507,37 +5507,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,55 +5647,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836023</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556954</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>565.7099969556954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429751</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429751</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.615197557855</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.294644713842</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5747,19 +5747,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355936</v>
@@ -5777,10 +5777,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1360811687895</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2407.960931088798</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,7 +6145,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038343</v>
@@ -6157,10 +6157,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400733</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121664</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797756</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524074</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138432</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.502065570313</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>917.5010142286973</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C34" t="n">
-        <v>748.5648313007904</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D34" t="n">
-        <v>598.4481918884546</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="E34" t="n">
-        <v>598.4481918884546</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="F34" t="n">
-        <v>451.5582443905442</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6917,58 +6917,58 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188007</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597621</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797189</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925705</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490404</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362704</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7190,34 +7190,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121641</v>
+        <v>194.800778399829</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121641</v>
+        <v>194.800778399829</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121641</v>
+        <v>194.800778399829</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270439</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038338</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,19 +7348,19 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
         <v>1688.385853854706</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,22 +7637,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745237</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121641</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121641</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121641</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121641</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127223</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637028</v>
+        <v>34.43939438637017</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>8.609690055160421</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.5605895300065</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>223.0281872106952</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878355</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111055</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>61.20082176630018</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>74.33029638072827</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184577</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615225</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>29.09756812910774</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927382</v>
+        <v>90.25352389927377</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811053</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459199</v>
       </c>
       <c r="D16" t="n">
-        <v>80.44045370237107</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>66.34424953497617</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>24.63391537253435</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823142</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.4141550350961</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345295009</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844822901</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124969</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>32.92052192791158</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194206</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393027</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405081</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823109</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345294968</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194242</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>909010.7595713692</v>
+        <v>909010.7595713693</v>
       </c>
     </row>
     <row r="6">
@@ -26314,28 +26314,28 @@
         <v>431046.9291787486</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>384609.3532440578</v>
+        <v>384609.3532440579</v>
       </c>
       <c r="F2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="G2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="H2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="I2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="J2" t="n">
         <v>423751.9648372531</v>
-      </c>
-      <c r="G2" t="n">
-        <v>423751.9648372533</v>
-      </c>
-      <c r="H2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="I2" t="n">
-        <v>423751.9648372531</v>
-      </c>
-      <c r="J2" t="n">
-        <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
         <v>423751.9648372532</v>
@@ -26347,13 +26347,13 @@
         <v>423751.9648372531</v>
       </c>
       <c r="N2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.964837253</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657061</v>
+        <v>132804.2190657065</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929385</v>
+        <v>265413.0723929382</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545759</v>
+        <v>313577.1573545766</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704306</v>
+        <v>189308.2687704296</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191139</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417401</v>
+        <v>30877.4292641743</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049589</v>
+        <v>65018.3450204958</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273043</v>
+        <v>81897.40371273067</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202402</v>
+        <v>49839.57413202374</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>253016.7649073352</v>
       </c>
       <c r="C4" t="n">
-        <v>217460.7998099267</v>
+        <v>217460.7998099265</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676995</v>
+        <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
         <v>12281.50162217159</v>
@@ -26430,10 +26430,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181816</v>
+        <v>12386.92018181812</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26442,22 +26442,22 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
+        <v>12386.92018181811</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12386.92018181811</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12386.92018181809</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12386.92018181805</v>
+      </c>
+      <c r="O4" t="n">
+        <v>12386.92018181805</v>
+      </c>
+      <c r="P4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12386.92018181815</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12386.92018181815</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12386.92018181817</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667487</v>
+        <v>72593.65038667491</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738555</v>
+        <v>85137.48506738563</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-565105.619524046</v>
+        <v>-565105.6195240458</v>
       </c>
       <c r="C6" t="n">
-        <v>8188.259916441093</v>
+        <v>8188.259916440613</v>
       </c>
       <c r="D6" t="n">
-        <v>-70050.87292173403</v>
+        <v>-70050.87292173361</v>
       </c>
       <c r="E6" t="n">
-        <v>-26386.79080007521</v>
+        <v>-26607.92211405071</v>
       </c>
       <c r="F6" t="n">
-        <v>120934.2460610972</v>
+        <v>120899.5081356626</v>
       </c>
       <c r="G6" t="n">
-        <v>310242.514831528</v>
+        <v>310207.7769060924</v>
       </c>
       <c r="H6" t="n">
-        <v>310242.5148315279</v>
+        <v>310207.7769060923</v>
       </c>
       <c r="I6" t="n">
-        <v>310242.5148315278</v>
+        <v>310207.7769060921</v>
       </c>
       <c r="J6" t="n">
-        <v>241243.360412414</v>
+        <v>241208.6224869781</v>
       </c>
       <c r="K6" t="n">
-        <v>279365.0855673539</v>
+        <v>279330.3476419179</v>
       </c>
       <c r="L6" t="n">
-        <v>245224.1698110321</v>
+        <v>245189.4318855964</v>
       </c>
       <c r="M6" t="n">
-        <v>228345.1111187974</v>
+        <v>228310.3731933615</v>
       </c>
       <c r="N6" t="n">
-        <v>260402.9406995039</v>
+        <v>260368.2027740685</v>
       </c>
       <c r="O6" t="n">
-        <v>310242.514831528</v>
+        <v>310207.7769060922</v>
       </c>
       <c r="P6" t="n">
-        <v>310242.5148315278</v>
+        <v>310207.7769060921</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.331951169574</v>
+        <v>717.3319511695745</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,19 +26790,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154302</v>
+        <v>383.6877278154306</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490077</v>
+        <v>969.2208239490086</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,19 +26814,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000958</v>
+        <v>103.2769374000961</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479651</v>
+        <v>216.7329409479648</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974099</v>
+        <v>268.1763450974106</v>
       </c>
       <c r="F3" t="n">
-        <v>165.734263126725</v>
+        <v>165.734263126724</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139241</v>
+        <v>119.9738478139245</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846086</v>
+        <v>256.8971042846082</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489688</v>
+        <v>328.6359918489698</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506409</v>
+        <v>203.4874641506398</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139241</v>
+        <v>119.9738478139247</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846086</v>
+        <v>256.8971042846083</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489688</v>
+        <v>328.6359918489698</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506409</v>
+        <v>203.4874641506398</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139241</v>
+        <v>119.9738478139245</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846086</v>
+        <v>256.8971042846082</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489688</v>
+        <v>328.6359918489698</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506409</v>
+        <v>203.4874641506398</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.4518511637872</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>313.8709546141471</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>156.0465223954742</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>140.5529483729157</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>223.8988999308989</v>
+        <v>208.769076415865</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>48.71629508123175</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.18831792628083</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863696</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>277.2943918783974</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>61.86825919803478</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333228</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951737</v>
+        <v>36.27346476951733</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713948</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.5655819769134</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>79.64345343374183</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>80.79972732683849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
         <v>150.7263422083602</v>
@@ -27795,7 +27795,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643649</v>
+        <v>1.905236112643593</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315185</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2484721153922</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>208.0401722434002</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>294.0241623106385</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>174.926936071989</v>
+        <v>6.561538634396328</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28387,13 +28387,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.813749233609997e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-3.205021433435225e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.087485988042317e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-3.268496584496461e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-1.730455778670148e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30460,22 +30460,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-6.436047097567696e-14</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-1.543357625607691e-12</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.436047097567696e-14</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.436047097567696e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-6.436047097567696e-14</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.720557692105558e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365119</v>
+        <v>2.883746537365121</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579054</v>
+        <v>29.53316922579056</v>
       </c>
       <c r="I5" t="n">
         <v>111.1756383817689</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756931</v>
+        <v>244.7543826756932</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023586</v>
+        <v>366.8233736023589</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952465</v>
+        <v>455.0768316952468</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791134</v>
+        <v>506.3606591791137</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284021</v>
+        <v>514.5541040284024</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974777</v>
+        <v>485.878849397478</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562762</v>
+        <v>414.6863567562765</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868878</v>
+        <v>311.412183886888</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277618</v>
+        <v>181.146143427762</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020773</v>
+        <v>65.71337422020777</v>
       </c>
       <c r="T5" t="n">
         <v>12.62360046731582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892095</v>
+        <v>0.2306997229892097</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270405</v>
+        <v>1.542940423270406</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316417</v>
+        <v>14.90155619316418</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189771</v>
+        <v>53.12316808189775</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862622</v>
+        <v>145.7740335862623</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453793</v>
+        <v>249.1510419453795</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438657</v>
+        <v>335.0143230438659</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874178</v>
+        <v>390.945913387418</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189111</v>
+        <v>401.2930884189113</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348668</v>
+        <v>367.1047769348671</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190653</v>
+        <v>294.6339480190654</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739555</v>
+        <v>196.9549915739557</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392919</v>
+        <v>95.79765189392926</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399192</v>
+        <v>28.65944163399194</v>
       </c>
       <c r="T6" t="n">
-        <v>6.21913267098904</v>
+        <v>6.219132670989045</v>
       </c>
       <c r="U6" t="n">
         <v>0.101509238373053</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141855</v>
+        <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
         <v>11.50083029907941</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572052</v>
+        <v>38.90055892572054</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402913</v>
+        <v>91.45394400402918</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401173</v>
+        <v>150.2869235401174</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545445</v>
+        <v>192.3155201545446</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773273</v>
+        <v>202.7697513773274</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022532</v>
+        <v>197.9483399022534</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669597</v>
+        <v>182.8373307669598</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960657</v>
+        <v>156.4489225960658</v>
       </c>
       <c r="Q7" t="n">
         <v>108.3171246266057</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565102</v>
+        <v>58.16268574565105</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101759</v>
+        <v>22.5430385310176</v>
       </c>
       <c r="T7" t="n">
-        <v>5.52698388606065</v>
+        <v>5.526983886060654</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864669</v>
+        <v>0.07055724109864675</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869138</v>
+        <v>4.833130601869142</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639233</v>
+        <v>49.49729877639236</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285601</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203911</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975119</v>
+        <v>614.7923367975123</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544647</v>
+        <v>762.7042574544653</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795455</v>
+        <v>848.6554437954555</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180157</v>
+        <v>862.3875761180163</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956794</v>
+        <v>814.32813369568</v>
       </c>
       <c r="P11" t="n">
-        <v>695.010221962035</v>
+        <v>695.0102219620354</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825962</v>
+        <v>521.9237322825967</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696625</v>
+        <v>303.5991401696627</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968216</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.386650448149531</v>
+        <v>0.3866504481495313</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.58595284985857</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837093</v>
+        <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469199</v>
+        <v>89.03390294469206</v>
       </c>
       <c r="J12" t="n">
-        <v>213.997984289168</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598376</v>
+        <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747741</v>
+        <v>561.4806834747745</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821471</v>
+        <v>655.2214742821476</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340497</v>
+        <v>267.5398078833348</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924466</v>
+        <v>615.2639659924471</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>493.8035753383443</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047536</v>
+        <v>330.0946129047538</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605173</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627647</v>
+        <v>48.0329399962765</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535154</v>
+        <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092165</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798447</v>
+        <v>65.19695102798451</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329023</v>
+        <v>251.8793936329025</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100537</v>
+        <v>322.318904810054</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770059</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531025</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806235</v>
+        <v>306.4335533806237</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493061</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194573</v>
+        <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811697</v>
+        <v>97.48008457811706</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493535</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377472</v>
+        <v>9.26317018837748</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473722</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,13 +32081,13 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>650.5350891770654</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.1165249313363</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>381.2855185329316</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>456.3459017226597</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967679</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>754.000239683233</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34793,10 +34793,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877686</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900677</v>
+        <v>63.70847814900691</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573781</v>
+        <v>146.7335225573783</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252592</v>
+        <v>219.3104167252595</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518407</v>
+        <v>276.014425951841</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318112</v>
+        <v>285.1410404318115</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757909</v>
+        <v>255.7806379757913</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010067</v>
+        <v>183.453361001007</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243828</v>
+        <v>89.1064940124385</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.54609697475598</v>
+        <v>18.93640691959564</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710204</v>
+        <v>111.3096029710205</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639915</v>
+        <v>196.4599432639918</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653995</v>
+        <v>248.8118794653997</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355777</v>
+        <v>291.5119658655846</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904224</v>
+        <v>224.5085324904226</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6877278154302</v>
+        <v>160.6595406047352</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793399</v>
+        <v>267.0505052237833</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142344</v>
+        <v>128.0174317142345</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148607</v>
+        <v>219.9055454148608</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391678</v>
+        <v>242.353628339168</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814818</v>
+        <v>242.080512281482</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809993</v>
+        <v>207.4224586809995</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609592</v>
+        <v>153.7274818609593</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491129</v>
+        <v>22.15508137491136</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313203</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>474.3640795072286</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937048</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525313</v>
+        <v>394.7024857525318</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844774</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681823</v>
+        <v>618.3092105681828</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214247</v>
+        <v>632.9745125214254</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739927</v>
+        <v>584.2299222739932</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067654</v>
+        <v>463.7772262067659</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081467</v>
+        <v>299.6180424081472</v>
       </c>
       <c r="R11" t="n">
-        <v>88.0136023555304</v>
+        <v>88.01360235553062</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.16035762250129</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854786</v>
+        <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036948999</v>
+        <v>422.9263036949004</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601288</v>
+        <v>513.0874403601292</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507165</v>
+        <v>136.1980958000015</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480022</v>
+        <v>472.6677215480026</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>359.829167924014</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187321</v>
+        <v>190.1128388187323</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655339</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186259</v>
+        <v>59.9167231918627</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070195</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703698</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388465</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323311</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946632</v>
+        <v>331.0186812946634</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141996</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776291</v>
+        <v>95.37638356776306</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>519.1933770937321</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>249.9438064495983</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>318.5044627483007</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060464</v>
+        <v>373.261899706045</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191325</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295337</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.5586081824376</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998997</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
